--- a/data/MSME Country Indicators - Colombia Summary.xlsx
+++ b/data/MSME Country Indicators - Colombia Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Colombia</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>80.8</t>
+  </si>
+  <si>
     <t>Enterprises (% of total)</t>
   </si>
   <si>
@@ -82,7 +88,43 @@
     <t>31</t>
   </si>
   <si>
+    <t>Source Type: SME Associations</t>
+  </si>
+  <si>
+    <t>596100</t>
+  </si>
+  <si>
+    <t>26614</t>
+  </si>
+  <si>
+    <t>622714</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>Source: CONFECAMARAS, 2005</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
+  </si>
+  <si>
+    <t>MinCIT</t>
+  </si>
+  <si>
+    <t>MSME Directorate under the Ministry of Commerce, Industry and Tourism (MinCIT), "Reporte de Mipymes No. 3, diciembre de 2008. Information based on Censo Económico 2005.", 2008. Available at http://www.mipymes.gov.co/publicaciones.php?id=21813</t>
+  </si>
+  <si>
+    <t>CONFECAMARAS</t>
+  </si>
+  <si>
+    <t>MSME Directorate under the Ministry of Commerce, Industry and Tourism (MinCIT), "Reporte de Mipymes No. 3, diciembre de 2008. Information based on Censo Económico 2005.", 2008, p. 3. Available at http://www.mipymes.gov.co/publicaciones.php?id=21813</t>
   </si>
 </sst>
 </file>
@@ -90,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -101,6 +143,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -133,26 +181,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -160,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -176,102 +227,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Colombia Summary.xlsx
+++ b/data/MSME Country Indicators - Colombia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Colombia</t>
   </si>
@@ -86,6 +86,51 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>&lt;=500 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal Vigente - Legal monthly minimum wage in force)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>11-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;500 - &lt;=5,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual  Legal Vigente - Legal monthly minimum wage in force)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>51-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;5,000 - &lt;=30,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;30,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
   </si>
   <si>
     <t>Source Type: SME Associations</t>
@@ -211,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -328,109 +373,243 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
+      <c r="B31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="D43" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="B44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Colombia Summary.xlsx
+++ b/data/MSME Country Indicators - Colombia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Colombia</t>
   </si>
@@ -163,13 +163,10 @@
     <t>MinCIT</t>
   </si>
   <si>
-    <t>MSME Directorate under the Ministry of Commerce, Industry and Tourism (MinCIT), "Reporte de Mipymes No. 3, diciembre de 2008. Information based on Censo Económico 2005.", 2008. Available at http://www.mipymes.gov.co/publicaciones.php?id=21813</t>
+    <t>The laws related to the MSME definition in Colombia are the following: Article 2, Law 590 of 2000. It was modified by article 2, Law 905 of 2004. The previous law was further modified by article 75, Law 1151 of 2007. Article 75 of Law 1151 of 2007 was Article 2, Law 590 of 2000. Updated by article 2, Law 905 of 2004. Modified by article 75, Law 1151 of 2007. Specifically, Article 75 of Law 1151 of 2007 was not abrogated by article 276, Law 1459 of 2011; therefore, it seems to remain as the official definition.</t>
   </si>
   <si>
     <t>CONFECAMARAS</t>
-  </si>
-  <si>
-    <t>MSME Directorate under the Ministry of Commerce, Industry and Tourism (MinCIT), "Reporte de Mipymes No. 3, diciembre de 2008. Information based on Censo Económico 2005.", 2008, p. 3. Available at http://www.mipymes.gov.co/publicaciones.php?id=21813</t>
   </si>
 </sst>
 </file>
@@ -609,7 +606,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Colombia Summary.xlsx
+++ b/data/MSME Country Indicators - Colombia Summary.xlsx
@@ -100,7 +100,8 @@
     <t>1-10</t>
   </si>
   <si>
-    <t>&lt;=500 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal Vigente - Legal monthly minimum wage in force)</t>
+    <t>&lt;=500 SMMLV 
+(Salario Minimo Mensual Legal Vigente - Legal monthly minimum wage in force)</t>
   </si>
   <si>
     <t/>
@@ -112,7 +113,8 @@
     <t>11-50</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;500 - &lt;=5,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual  Legal Vigente - Legal monthly minimum wage in force)</t>
+    <t xml:space="preserve">&gt;500 - &lt;=5,000 SMMLV 
+(Salario Minimo Mensual  Legal Vigente - Legal monthly minimum wage in force)</t>
   </si>
   <si>
     <t>Medium</t>
@@ -121,7 +123,8 @@
     <t>51-200</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;5,000 - &lt;=30,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
+    <t xml:space="preserve">&gt;5,000 - &lt;=30,000 SMMLV 
+(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
   </si>
   <si>
     <t>Large</t>
@@ -130,7 +133,8 @@
     <t>&gt;200</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;30,000 SMMLV &lt;br/&gt;(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
+    <t xml:space="preserve">&gt;30,000 SMMLV 
+(Salario Minimo Mensual Legal  Vigente - Legal monthly minimum wage in force)</t>
   </si>
   <si>
     <t>Source Type: SME Associations</t>

--- a/data/MSME Country Indicators - Colombia Summary.xlsx
+++ b/data/MSME Country Indicators - Colombia Summary.xlsx
@@ -46,13 +46,13 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>32.2</t>
+    <t>30.94</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>32.18</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
@@ -70,13 +70,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>99.9</t>
+    <t>96.01</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>99.87</t>
   </si>
   <si>
     <t>Source: MinCIT, 2005</t>
@@ -152,10 +152,10 @@
     <t>13.8</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>14.4</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>14.42</t>
   </si>
   <si>
     <t>Source: CONFECAMARAS, 2005</t>
